--- a/Intermedio/Ejercicios/Selenium/src/test/resources/data.xlsx
+++ b/Intermedio/Ejercicios/Selenium/src/test/resources/data.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WS JAVA\202511\Intermedio\Ejercicios\Selenium\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EBCA47-F2E8-4F2A-8208-C076DAF847F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D97C59B-1B82-4373-B58D-8B09C7833AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -75,19 +75,41 @@
     <t>cundinamarca</t>
   </si>
   <si>
-    <t>usuario02</t>
-  </si>
-  <si>
-    <t>usuario03</t>
-  </si>
-  <si>
-    <t>usuario04</t>
+    <t>usuario11</t>
+  </si>
+  <si>
+    <t>usuario13</t>
+  </si>
+  <si>
+    <t>camilo</t>
+  </si>
+  <si>
+    <t>cordoba</t>
+  </si>
+  <si>
+    <t>andrea</t>
+  </si>
+  <si>
+    <t>lopez</t>
+  </si>
+  <si>
+    <t>mensaje</t>
+  </si>
+  <si>
+    <t>usuario15</t>
+  </si>
+  <si>
+    <t>Error:No se logro el registro</t>
+  </si>
+  <si>
+    <t>OK:Se creo el usuariousuario15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -405,15 +427,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,8 +469,11 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -482,16 +507,19 @@
       <c r="K2">
         <v>1234</v>
       </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -512,21 +540,24 @@
         <v>123456</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K3">
         <v>1234</v>
       </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -547,10 +578,13 @@
         <v>123456</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4">
         <v>1234</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
